--- a/fig/fig.xlsx
+++ b/fig/fig.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="ボロノイ図" sheetId="1" r:id="rId1"/>
+    <sheet name="kNN" sheetId="2" r:id="rId1"/>
+    <sheet name="ボロノイ図" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,9 +20,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス2雛形</t>
+    <rPh sb="4" eb="6">
+      <t>ヒナガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス1雛形</t>
+    <rPh sb="4" eb="6">
+      <t>ヒナガタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -85,6 +100,815 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E561DE-8DAE-4267-9F25-157C47760089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162300" y="1930400"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E9A12C-4004-4917-8D7F-87494A656EC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3613150" y="1714500"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E4EF41-BB54-43B6-BD64-B3E6A9D85EAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3632200" y="2139950"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FE2D07-4263-420E-87B4-F22102FDCFAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4368800" y="1409700"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="二等辺三角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF2E84E-BAF4-49C7-A066-3F439BE4ED36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2787650" y="2171700"/>
+          <a:ext cx="184150" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="二等辺三角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94569017-2236-4F0D-956D-EA244B10A516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2870200" y="2540000"/>
+          <a:ext cx="184150" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="二等辺三角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7099D2DD-F0AB-4080-8188-0C74525992ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="2076450"/>
+          <a:ext cx="184150" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="二等辺三角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63CF6FA-042B-40A0-8AE3-F54650ED7A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054600" y="2552700"/>
+          <a:ext cx="184150" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99203E04-6CFB-48E7-998A-CEAE996256E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5060950" y="2336800"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC13A03-3FDF-41FF-AE5A-95DD63FC4E09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609850" y="1333500"/>
+          <a:ext cx="1295400" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>299400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B3D8AE-7BDA-4D17-B844-ABDD82DB7230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="984250"/>
+          <a:ext cx="2052000" cy="2052000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1CC473-B11F-47B5-9F31-FD83AD0425CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3073400" y="1047750"/>
+          <a:ext cx="457200" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>k=3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61FAB9E0-B83A-4032-8411-114C26F50E1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3060700" y="685800"/>
+          <a:ext cx="457200" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>k=5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -914,9 +1738,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I11:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="11" spans="9:9">
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="9:9">
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
